--- a/MED/Project/Documentation/results/results.xlsx
+++ b/MED/Project/Documentation/results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
@@ -483,11 +483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95074176"/>
-        <c:axId val="95084544"/>
+        <c:axId val="85309312"/>
+        <c:axId val="85319680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95074176"/>
+        <c:axId val="85309312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95084544"/>
+        <c:crossAx val="85319680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95084544"/>
+        <c:axId val="85319680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.19000000000000003"/>
@@ -561,7 +561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95074176"/>
+        <c:crossAx val="85309312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -857,11 +857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95131520"/>
-        <c:axId val="95137792"/>
+        <c:axId val="85432192"/>
+        <c:axId val="85438464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95131520"/>
+        <c:axId val="85432192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95137792"/>
+        <c:crossAx val="85438464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95137792"/>
+        <c:axId val="85438464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22000000000000003"/>
@@ -935,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95131520"/>
+        <c:crossAx val="85432192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -987,7 +987,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1357,11 +1356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96651520"/>
-        <c:axId val="96670080"/>
+        <c:axId val="85903616"/>
+        <c:axId val="86184320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96651520"/>
+        <c:axId val="85903616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,14 +1387,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96670080"/>
+        <c:crossAx val="86184320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1403,7 +1401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96670080"/>
+        <c:axId val="86184320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1428,21 +1426,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96651520"/>
+        <c:crossAx val="85903616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1487,7 +1483,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1857,11 +1852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96708864"/>
-        <c:axId val="96711040"/>
+        <c:axId val="86223104"/>
+        <c:axId val="86225280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96708864"/>
+        <c:axId val="86223104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,14 +1883,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96711040"/>
+        <c:crossAx val="86225280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1903,7 +1897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96711040"/>
+        <c:axId val="86225280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1928,21 +1922,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96708864"/>
+        <c:crossAx val="86223104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1987,7 +1979,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2231,11 +2222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96436608"/>
-        <c:axId val="96438528"/>
+        <c:axId val="86868352"/>
+        <c:axId val="86870272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96436608"/>
+        <c:axId val="86868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,14 +2253,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96438528"/>
+        <c:crossAx val="86870272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2277,7 +2267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96438528"/>
+        <c:axId val="86870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2302,21 +2292,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96436608"/>
+        <c:crossAx val="86868352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2361,7 +2349,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2605,11 +2592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96469760"/>
-        <c:axId val="96471680"/>
+        <c:axId val="89260800"/>
+        <c:axId val="89262720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96469760"/>
+        <c:axId val="89260800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,14 +2623,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96471680"/>
+        <c:crossAx val="89262720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2651,7 +2637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96471680"/>
+        <c:axId val="89262720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.9000000000000001"/>
@@ -2676,21 +2662,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96469760"/>
+        <c:crossAx val="89260800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2925,11 +2909,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96559872"/>
-        <c:axId val="96561792"/>
+        <c:axId val="89023232"/>
+        <c:axId val="89025152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96559872"/>
+        <c:axId val="89023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +2947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96561792"/>
+        <c:crossAx val="89025152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2971,7 +2955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96561792"/>
+        <c:axId val="89025152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -3003,7 +2987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96559872"/>
+        <c:crossAx val="89023232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3245,11 +3229,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96582272"/>
-        <c:axId val="102306560"/>
+        <c:axId val="89046016"/>
+        <c:axId val="89130112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96582272"/>
+        <c:axId val="89046016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102306560"/>
+        <c:crossAx val="89130112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3291,7 +3275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102306560"/>
+        <c:axId val="89130112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -3323,7 +3307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96582272"/>
+        <c:crossAx val="89046016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3908,7 +3892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4921,7 +4905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/MED/Project/Documentation/results/results.xlsx
+++ b/MED/Project/Documentation/results/results.xlsx
@@ -483,11 +483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85309312"/>
-        <c:axId val="85319680"/>
+        <c:axId val="90093440"/>
+        <c:axId val="90103808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85309312"/>
+        <c:axId val="90093440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85319680"/>
+        <c:crossAx val="90103808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85319680"/>
+        <c:axId val="90103808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.19000000000000003"/>
@@ -561,7 +561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85309312"/>
+        <c:crossAx val="90093440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -857,11 +857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85432192"/>
-        <c:axId val="85438464"/>
+        <c:axId val="90150784"/>
+        <c:axId val="90157056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85432192"/>
+        <c:axId val="90150784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85438464"/>
+        <c:crossAx val="90157056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85438464"/>
+        <c:axId val="90157056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22000000000000003"/>
@@ -935,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85432192"/>
+        <c:crossAx val="90150784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,11 +1356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="85903616"/>
-        <c:axId val="86184320"/>
+        <c:axId val="90228992"/>
+        <c:axId val="90509696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85903616"/>
+        <c:axId val="90228992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86184320"/>
+        <c:crossAx val="90509696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1401,7 +1401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86184320"/>
+        <c:axId val="90509696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1432,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85903616"/>
+        <c:crossAx val="90228992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1852,11 +1852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86223104"/>
-        <c:axId val="86225280"/>
+        <c:axId val="90548480"/>
+        <c:axId val="90550656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86223104"/>
+        <c:axId val="90548480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,7 +1889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86225280"/>
+        <c:crossAx val="90550656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1897,7 +1897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86225280"/>
+        <c:axId val="90550656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1928,7 +1928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86223104"/>
+        <c:crossAx val="90548480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2222,11 +2222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86868352"/>
-        <c:axId val="86870272"/>
+        <c:axId val="93684480"/>
+        <c:axId val="93686400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86868352"/>
+        <c:axId val="93684480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86870272"/>
+        <c:crossAx val="93686400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2267,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86870272"/>
+        <c:axId val="93686400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2298,7 +2298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86868352"/>
+        <c:crossAx val="93684480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,11 +2592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89260800"/>
-        <c:axId val="89262720"/>
+        <c:axId val="93717248"/>
+        <c:axId val="93719168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89260800"/>
+        <c:axId val="93717248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89262720"/>
+        <c:crossAx val="93719168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89262720"/>
+        <c:axId val="93719168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.9000000000000001"/>
@@ -2668,7 +2668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89260800"/>
+        <c:crossAx val="93717248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2719,7 +2719,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2909,11 +2908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89023232"/>
-        <c:axId val="89025152"/>
+        <c:axId val="93414144"/>
+        <c:axId val="93416064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89023232"/>
+        <c:axId val="93414144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,14 +2939,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89025152"/>
+        <c:crossAx val="93416064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2955,7 +2953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89025152"/>
+        <c:axId val="93416064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2980,21 +2978,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89023232"/>
+        <c:crossAx val="93414144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3039,7 +3035,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3229,11 +3224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89046016"/>
-        <c:axId val="89130112"/>
+        <c:axId val="93520640"/>
+        <c:axId val="93522560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89046016"/>
+        <c:axId val="93520640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,14 +3255,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89130112"/>
+        <c:crossAx val="93522560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3275,7 +3269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89130112"/>
+        <c:axId val="93522560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -3300,21 +3294,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89046016"/>
+        <c:crossAx val="93520640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>

--- a/MED/Project/Documentation/results/results.xlsx
+++ b/MED/Project/Documentation/results/results.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="car" sheetId="1" r:id="rId1"/>
     <sheet name="mushrooms" sheetId="2" r:id="rId2"/>
-    <sheet name="nursey" sheetId="3" r:id="rId3"/>
+    <sheet name="nursery" sheetId="3" r:id="rId3"/>
     <sheet name="molecular" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>mushrooms</t>
-  </si>
-  <si>
-    <t>nursey</t>
   </si>
   <si>
     <t>1 (117)</t>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>1500 (44)</t>
+  </si>
+  <si>
+    <t>nursery</t>
   </si>
 </sst>
 </file>
@@ -483,11 +483,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90093440"/>
-        <c:axId val="90103808"/>
+        <c:axId val="76261248"/>
+        <c:axId val="76275712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90093440"/>
+        <c:axId val="76261248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -521,7 +521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90103808"/>
+        <c:crossAx val="76275712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90103808"/>
+        <c:axId val="76275712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.19000000000000003"/>
@@ -561,7 +561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90093440"/>
+        <c:crossAx val="76261248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -857,11 +857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90150784"/>
-        <c:axId val="90157056"/>
+        <c:axId val="76646272"/>
+        <c:axId val="76652544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90150784"/>
+        <c:axId val="76646272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90157056"/>
+        <c:crossAx val="76652544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -903,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90157056"/>
+        <c:axId val="76652544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.22000000000000003"/>
@@ -935,7 +935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90150784"/>
+        <c:crossAx val="76646272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1356,11 +1356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90228992"/>
-        <c:axId val="90509696"/>
+        <c:axId val="77117696"/>
+        <c:axId val="77132160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90228992"/>
+        <c:axId val="77117696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90509696"/>
+        <c:crossAx val="77132160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1401,7 +1401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90509696"/>
+        <c:axId val="77132160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -1432,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90228992"/>
+        <c:crossAx val="77117696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1852,11 +1852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="90548480"/>
-        <c:axId val="90550656"/>
+        <c:axId val="77170944"/>
+        <c:axId val="77173120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90548480"/>
+        <c:axId val="77170944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,7 +1889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90550656"/>
+        <c:crossAx val="77173120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1897,7 +1897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90550656"/>
+        <c:axId val="77173120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -1928,7 +1928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90548480"/>
+        <c:crossAx val="77170944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1974,11 +1974,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t>nursey, TIDSets</a:t>
+              <a:t>nursery, TIDSets</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1992,7 +1993,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nursey!$B$6</c:f>
+              <c:f>nursery!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2003,7 +2004,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>nursey!$A$7:$A$13</c:f>
+              <c:f>nursery!$A$7:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2032,7 +2033,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nursey!$B$7:$B$13</c:f>
+              <c:f>nursery!$B$7:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2067,7 +2068,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>nursey!$C$6</c:f>
+              <c:f>nursery!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2078,7 +2079,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>nursey!$A$7:$A$13</c:f>
+              <c:f>nursery!$A$7:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2107,7 +2108,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nursey!$C$7:$C$13</c:f>
+              <c:f>nursery!$C$7:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2142,7 +2143,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nursey!$D$6</c:f>
+              <c:f>nursery!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2153,7 +2154,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>nursey!$A$7:$A$13</c:f>
+              <c:f>nursery!$A$7:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2182,7 +2183,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nursey!$D$7:$D$13</c:f>
+              <c:f>nursery!$D$7:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2222,11 +2223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93684480"/>
-        <c:axId val="93686400"/>
+        <c:axId val="77562240"/>
+        <c:axId val="77564160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93684480"/>
+        <c:axId val="77562240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,13 +2254,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93686400"/>
+        <c:crossAx val="77564160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93686400"/>
+        <c:axId val="77564160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -2292,19 +2294,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93684480"/>
+        <c:crossAx val="77562240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2344,11 +2348,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t>nursey, DiffSets</a:t>
+              <a:t>nursery, DiffSets</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2362,7 +2367,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nursey!$B$23</c:f>
+              <c:f>nursery!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2373,7 +2378,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>nursey!$A$24:$A$30</c:f>
+              <c:f>nursery!$A$24:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2402,7 +2407,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nursey!$B$24:$B$30</c:f>
+              <c:f>nursery!$B$24:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2437,7 +2442,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>nursey!$C$23</c:f>
+              <c:f>nursery!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2448,7 +2453,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>nursey!$A$24:$A$30</c:f>
+              <c:f>nursery!$A$24:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2477,7 +2482,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nursey!$C$24:$C$30</c:f>
+              <c:f>nursery!$C$24:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2512,7 +2517,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nursey!$D$23</c:f>
+              <c:f>nursery!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2523,7 +2528,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>nursey!$A$24:$A$30</c:f>
+              <c:f>nursery!$A$24:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2552,7 +2557,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nursey!$D$24:$D$30</c:f>
+              <c:f>nursery!$D$24:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2592,11 +2597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93717248"/>
-        <c:axId val="93719168"/>
+        <c:axId val="77593216"/>
+        <c:axId val="77607680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93717248"/>
+        <c:axId val="77593216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,13 +2628,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93719168"/>
+        <c:crossAx val="77607680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93719168"/>
+        <c:axId val="77607680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.9000000000000001"/>
@@ -2662,19 +2668,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93717248"/>
+        <c:crossAx val="77593216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2908,11 +2916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93414144"/>
-        <c:axId val="93416064"/>
+        <c:axId val="77671040"/>
+        <c:axId val="77681408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93414144"/>
+        <c:axId val="77671040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,7 +2953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93416064"/>
+        <c:crossAx val="77681408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2953,7 +2961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93416064"/>
+        <c:axId val="77681408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="170"/>
@@ -2984,7 +2992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93414144"/>
+        <c:crossAx val="77671040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3224,11 +3232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93520640"/>
-        <c:axId val="93522560"/>
+        <c:axId val="77720192"/>
+        <c:axId val="81269504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93520640"/>
+        <c:axId val="77720192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,7 +3269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93522560"/>
+        <c:crossAx val="81269504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3269,7 +3277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93522560"/>
+        <c:axId val="81269504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="360"/>
@@ -3300,7 +3308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93520640"/>
+        <c:crossAx val="77720192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4209,7 +4217,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>43.66</v>
@@ -4223,7 +4231,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>41.35</v>
@@ -4237,7 +4245,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>35.47</v>
@@ -4251,7 +4259,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>26.76</v>
@@ -4265,7 +4273,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>21.23</v>
@@ -4279,7 +4287,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>11.79</v>
@@ -4293,7 +4301,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>7.79</v>
@@ -4307,7 +4315,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>6.33</v>
@@ -4321,7 +4329,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>5.74</v>
@@ -4335,7 +4343,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>5.19</v>
@@ -4349,7 +4357,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>3.59</v>
@@ -4363,7 +4371,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>2.06</v>
@@ -4377,7 +4385,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>1.55</v>
@@ -4391,7 +4399,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>1.18</v>
@@ -4421,7 +4429,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>161.12</v>
@@ -4435,7 +4443,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>168.71</v>
@@ -4449,7 +4457,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>123.72</v>
@@ -4463,7 +4471,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>102.69</v>
@@ -4477,7 +4485,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>71.7</v>
@@ -4491,7 +4499,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>37.69</v>
@@ -4505,7 +4513,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>20.66</v>
@@ -4519,7 +4527,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>18.89</v>
@@ -4533,7 +4541,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>10.91</v>
@@ -4547,7 +4555,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>8.48</v>
@@ -4561,7 +4569,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>5.08</v>
@@ -4575,7 +4583,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2.2799999999999998</v>
@@ -4589,7 +4597,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1.61</v>
@@ -4603,7 +4611,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>1.1299999999999999</v>
@@ -4640,7 +4648,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,7 +4685,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.96799999999999997</v>
@@ -4705,7 +4713,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0.81</v>
@@ -4719,7 +4727,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0.67</v>
@@ -4733,7 +4741,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0.66</v>
@@ -4747,7 +4755,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0.56699999999999995</v>
@@ -4761,7 +4769,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0.54200000000000004</v>
@@ -4791,7 +4799,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1.806</v>
@@ -4819,7 +4827,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>1.163</v>
@@ -4833,7 +4841,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>1.0669999999999999</v>
@@ -4847,7 +4855,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>0.94</v>
@@ -4861,7 +4869,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>0.80800000000000005</v>
@@ -4875,7 +4883,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>0.71799999999999997</v>
@@ -4912,7 +4920,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,7 +4957,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2">
         <v>159</v>
@@ -4963,7 +4971,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <v>29</v>
@@ -4977,7 +4985,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2">
         <v>17</v>
@@ -4991,7 +4999,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
@@ -5024,7 +5032,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>343</v>
@@ -5038,7 +5046,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>60</v>
@@ -5052,7 +5060,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>19</v>
@@ -5066,7 +5074,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>14</v>
